--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>jenis2</t>
+          <t>jenis1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Modi.</t>
+          <t>Sint.</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -444,26 +444,42 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Illum beatae quas laboriosam. Nobis tempora ad tempora doloribus.
-Error molestias earum reprehenderit. Fugit dignissimos porro voluptatem. Doloremque quisquam inventore dolores nesciunt numquam.</t>
+          <t>Quo amet magnam sapiente rem. Rem optio magni vel. Ad dignissimos corrupti ratione facilis quas eius. Dolores tempora eius earum nostrum.
+Magnam aliquid commodi nam. Provident non a adipisci magnam minus id.</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Jl. Medokan Ayu No. 32
-Kotamobagu, PB 16126</t>
-        </is>
+          <t>Gg. Jend. Sudirman No. 28
+Kupang, SN 58388</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Sweater Anak</t>
+        </is>
+      </c>
+      <c r="H1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="J1" t="n">
+        <v>259955</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jenis3</t>
+          <t>jenis2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unde.</t>
+          <t>Modi.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,31 +489,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>mitra3</t>
+          <t>mitra1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Eveniet ratione laudantium laborum id ducimus iste. Quisquam provident voluptates nam deleniti sapiente consequatur. Dolore tenetur amet et quod.
-Cum facilis delectus quas enim vero corrupti. Rem dolor laudantium labore consectetur.</t>
+          <t>Dicta quis alias incidunt expedita. Doloremque molestias consectetur sed dolorum. Natus quod odit reiciendis quod hic.
+Debitis asperiores maxime cupiditate. Et magni eos consectetur odio.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gang S. Parman No. 066
-Tegal, LA 36366</t>
-        </is>
+          <t>Gg. Siliwangi No. 21
+Bima, BE 57688</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>mobil mini</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Lusin</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>640041</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jenis2</t>
+          <t>jenis3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Error.</t>
+          <t>Unde.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,26 +544,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Eius blanditiis eos quibusdam optio. Suscipit nam adipisci quia sit at. Debitis voluptate aliquid sit facilis enim.
-Nihil voluptatem quisquam beatae voluptatem nisi velit. Magnam odit sed non. Possimus necessitatibus sint at vero.</t>
+          <t>Odio architecto voluptas repudiandae beatae perferendis. Repellat animi asperiores expedita labore minima.
+Consequatur quasi ex tempore. Exercitationem voluptatum vero a. Id quasi exercitationem et consequuntur.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jl. Ciumbuleuit No. 95
-Payakumbuh, Kalimantan Selatan 78533</t>
-        </is>
+          <t>Jalan Antapani Lama No. 79
+Bau-Bau, Papua Barat 30307</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sablon Baju</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Lusin</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>241675</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jenis3</t>
+          <t>jenis1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quam.</t>
+          <t>Cum.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +589,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>mitra1</t>
+          <t>mitra3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ex delectus ducimus possimus earum numquam velit veniam. Eum dolorum repellat beatae pariatur assumenda dignissimos voluptatum.
-Alias blanditiis placeat voluptatem culpa porro esse. Qui possimus dolor fugiat minus quibusdam ut ducimus.</t>
+          <t>Quod facere sapiente unde dolorem eum. Maiores eum earum eius. Quas corporis dolore eum commodi temporibus sint.
+Sit rerum eius repellat. Iste beatae reiciendis officia ipsum fugit laborum.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gg. Dr. Djunjunan No. 15
-Palangkaraya, NT 11193</t>
-        </is>
+          <t>Jalan PHH. Mustofa No. 2
+Surakarta, Jawa Barat 09864</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sweater Anak</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Kotak</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>908791</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +629,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Magnam.</t>
+          <t>Cum.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,15 +644,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Odio qui non eum. Inventore sed laudantium ab fuga non commodi. Ipsam tempora dolores libero eveniet aliquid aspernatur.
-Cupiditate perferendis nobis voluptas magni tempora minus. Numquam aperiam et et mollitia quas natus.</t>
+          <t>Magni dolorem beatae eveniet. Magni omnis officiis eveniet.
+Quis omnis ratione aliquid fuga qui. Corporis dolorem corrupti occaecati. Quisquam iste laudantium maiores assumenda. Corporis ea libero ipsum.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Jl. Sadang Serang No. 16
-Blitar, SB 08772</t>
-        </is>
+          <t>Jalan Stasiun Wonokromo No. 699
+Bekasi, KU 11621</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Meja Kayu</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Lusin</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>980836</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,251 +424,132 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>jenis1</t>
+          <t>04/05/2023</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Sint.</t>
+          <t>pendapatan</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>03/05/2023</t>
+          <t>Vero doloremque quia facilis doloremque.
+Quam quos cum corporis. Inventore repellat quas nostrum.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>mitra4</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Quo amet magnam sapiente rem. Rem optio magni vel. Ad dignissimos corrupti ratione facilis quas eius. Dolores tempora eius earum nostrum.
-Magnam aliquid commodi nam. Provident non a adipisci magnam minus id.</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Gg. Jend. Sudirman No. 28
-Kupang, SN 58388</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Sweater Anak</t>
-        </is>
-      </c>
-      <c r="H1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="J1" t="n">
-        <v>259955</v>
+          <t>pemasaran0opt1</t>
+        </is>
+      </c>
+      <c r="E1" t="n">
+        <v>144823</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jenis2</t>
+          <t>04/05/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modi.</t>
+          <t>pendapatan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03/05/2023</t>
+          <t>Odio quod magni nostrum. Totam dolorum autem quisquam.
+Aut a in itaque ab accusantium deserunt aliquid. Voluptates laborum suscipit vitae.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>mitra1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Dicta quis alias incidunt expedita. Doloremque molestias consectetur sed dolorum. Natus quod odit reiciendis quod hic.
-Debitis asperiores maxime cupiditate. Et magni eos consectetur odio.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Gg. Siliwangi No. 21
-Bima, BE 57688</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>mobil mini</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Lusin</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>640041</v>
+          <t>pemasaran0opt1</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>258618</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jenis3</t>
+          <t>04/05/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unde.</t>
+          <t>nihil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03/05/2023</t>
+          <t>Explicabo doloremque beatae corporis quos blanditiis. Aliquid accusamus eveniet dignissimos et eos repellat.
+Nobis eum itaque quaerat recusandae dolores.
+Magnam inventore temporibus vel quasi suscipit architecto.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>mitra2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Odio architecto voluptas repudiandae beatae perferendis. Repellat animi asperiores expedita labore minima.
-Consequatur quasi ex tempore. Exercitationem voluptatum vero a. Id quasi exercitationem et consequuntur.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jalan Antapani Lama No. 79
-Bau-Bau, Papua Barat 30307</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Sablon Baju</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Lusin</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>241675</v>
+          <t>pemasaran0opt1</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>933250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jenis1</t>
+          <t>04/05/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cum.</t>
+          <t>nihil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03/05/2023</t>
+          <t>Nobis voluptatibus molestias earum expedita. Et quos odio minus. Consequatur excepturi quasi dolore excepturi.
+Repellat minus corporis laudantium asperiores perferendis magni aliquam. Exercitationem repudiandae molestias facilis ex doloribus sit.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>mitra3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Quod facere sapiente unde dolorem eum. Maiores eum earum eius. Quas corporis dolore eum commodi temporibus sint.
-Sit rerum eius repellat. Iste beatae reiciendis officia ipsum fugit laborum.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jalan PHH. Mustofa No. 2
-Surakarta, Jawa Barat 09864</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Sweater Anak</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Kotak</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>908791</v>
+          <t>pemasaran0opt1</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>182085</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jenis0</t>
+          <t>04/05/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cum.</t>
+          <t>nihil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>03/05/2023</t>
+          <t>Repudiandae necessitatibus itaque libero. Facilis aliquid velit voluptatem voluptatibus dicta.
+Quis voluptate unde fuga. Voluptatem provident dolore reiciendis facilis in ipsa. Quo ratione rem ducimus iusto eum vitae.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>mitra2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Magni dolorem beatae eveniet. Magni omnis officiis eveniet.
-Quis omnis ratione aliquid fuga qui. Corporis dolorem corrupti occaecati. Quisquam iste laudantium maiores assumenda. Corporis ea libero ipsum.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jalan Stasiun Wonokromo No. 699
-Bekasi, KU 11621</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Meja Kayu</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Lusin</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>980836</v>
+          <t>pemasaran0opt1</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>949184</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>04/05/2023</t>
+          <t>07</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,8 +434,8 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Vero doloremque quia facilis doloremque.
-Quam quos cum corporis. Inventore repellat quas nostrum.</t>
+          <t>Nemo est sunt. Perferendis maiores illo odio ratione ea. Nemo ipsa voluptates consequuntur et.
+Praesentium molestiae dicta. Voluptatibus ipsa corrupti distinctio quidem.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -444,24 +444,24 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>144823</v>
+        <v>852037</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04/05/2023</t>
+          <t>07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pendapatan</t>
+          <t>nihil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Odio quod magni nostrum. Totam dolorum autem quisquam.
-Aut a in itaque ab accusantium deserunt aliquid. Voluptates laborum suscipit vitae.</t>
+          <t>Accusamus necessitatibus sapiente amet consequatur architecto. Neque cum repellendus debitis nobis. Nesciunt aspernatur aliquid quidem molestiae explicabo.
+Earum officiis repellat perspiciatis. Occaecati dicta eum rerum libero consequuntur fuga.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>258618</v>
+        <v>768450</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04/05/2023</t>
+          <t>07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -486,9 +486,8 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Explicabo doloremque beatae corporis quos blanditiis. Aliquid accusamus eveniet dignissimos et eos repellat.
-Nobis eum itaque quaerat recusandae dolores.
-Magnam inventore temporibus vel quasi suscipit architecto.</t>
+          <t>Dicta provident expedita sequi aut repudiandae. Nihil tempora vitae blanditiis possimus maiores.
+Provident quia placeat omnis debitis repellendus numquam. Eius voluptas animi a repudiandae ipsum incidunt.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -497,24 +496,24 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>933250</v>
+        <v>953997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04/05/2023</t>
+          <t>07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nihil</t>
+          <t>pendapatan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nobis voluptatibus molestias earum expedita. Et quos odio minus. Consequatur excepturi quasi dolore excepturi.
-Repellat minus corporis laudantium asperiores perferendis magni aliquam. Exercitationem repudiandae molestias facilis ex doloribus sit.</t>
+          <t>Harum neque quibusdam nesciunt repellat illum illo. Explicabo aperiam doloribus inventore atque.
+Nobis praesentium neque quam quod. Quis accusamus minima corrupti sint. Illum saepe iure similique ut quam. Doloremque soluta error laborum porro.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -523,24 +522,24 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>182085</v>
+        <v>404864</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04/05/2023</t>
+          <t>07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nihil</t>
+          <t>pendapatan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Repudiandae necessitatibus itaque libero. Facilis aliquid velit voluptatem voluptatibus dicta.
-Quis voluptate unde fuga. Voluptatem provident dolore reiciendis facilis in ipsa. Quo ratione rem ducimus iusto eum vitae.</t>
+          <t>Maiores doloremque repellendus deserunt animi. Laborum alias inventore nihil asperiores iusto.
+Quia saepe dicta magni. A iure reiciendis reiciendis. Labore optio ab unde enim delectus mollitia.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -549,7 +548,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>949184</v>
+        <v>724113</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Pemasaran" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GiatjaTambah" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,131 +424,112 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>Manufaktur</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>pendapatan</t>
+          <t>jenisKegiatan3</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Nemo est sunt. Perferendis maiores illo odio ratione ea. Nemo ipsa voluptates consequuntur et.
-Praesentium molestiae dicta. Voluptatibus ipsa corrupti distinctio quidem.</t>
+          <t>Amet.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>pemasaran0opt1</t>
-        </is>
-      </c>
-      <c r="E1" t="n">
-        <v>852037</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>nihil</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Accusamus necessitatibus sapiente amet consequatur architecto. Neque cum repellendus debitis nobis. Nesciunt aspernatur aliquid quidem molestiae explicabo.
-Earum officiis repellat perspiciatis. Occaecati dicta eum rerum libero consequuntur fuga.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>pemasaran0opt1</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>768450</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>nihil</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Dicta provident expedita sequi aut repudiandae. Nihil tempora vitae blanditiis possimus maiores.
-Provident quia placeat omnis debitis repellendus numquam. Eius voluptas animi a repudiandae ipsum incidunt.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>pemasaran0opt1</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>953997</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>pendapatan</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Harum neque quibusdam nesciunt repellat illum illo. Explicabo aperiam doloribus inventore atque.
-Nobis praesentium neque quam quod. Quis accusamus minima corrupti sint. Illum saepe iure similique ut quam. Doloremque soluta error laborum porro.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>pemasaran0opt1</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>404864</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pendapatan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Maiores doloremque repellendus deserunt animi. Laborum alias inventore nihil asperiores iusto.
-Quia saepe dicta magni. A iure reiciendis reiciendis. Labore optio ab unde enim delectus mollitia.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>pemasaran0opt1</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>724113</v>
+          <t>skala1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>08/05/2023</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>area0</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Gg. Stasiun Wonokromo No. 1
+Kota Administrasi Jakarta Pusat, Sulawesi Barat 85853</t>
+        </is>
+      </c>
+      <c r="I1" t="n">
+        <v>964</v>
+      </c>
+      <c r="J1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>sarana2</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>prasaranaundefined-2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>mitra2</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quasi provident consectetur quae itaque doloribus.</t>
+        </is>
+      </c>
+      <c r="O1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(8) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(2) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(6) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>#jenis0 &gt; span</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Porro.</t>
+        </is>
+      </c>
+      <c r="U1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>satuan0</t>
+        </is>
+      </c>
+      <c r="W1" t="n">
+        <v>623784</v>
+      </c>
+      <c r="X1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GiatjaTambah" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Pemasaran" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,112 +424,132 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Manufaktur</t>
+          <t>07</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>jenisKegiatan3</t>
+          <t>pendapatan</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Amet.</t>
+          <t>Ratione ratione quia laboriosam cumque voluptate. Illum porro rem maxime. Occaecati magnam accusamus.
+Ut maiores magnam suscipit quidem nisi. Vitae non cumque deserunt. Hic optio cupiditate debitis.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>skala1</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>08/05/2023</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>15/05/2023</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>area0</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Gg. Stasiun Wonokromo No. 1
-Kota Administrasi Jakarta Pusat, Sulawesi Barat 85853</t>
-        </is>
-      </c>
-      <c r="I1" t="n">
-        <v>964</v>
-      </c>
-      <c r="J1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>sarana2</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>prasaranaundefined-2</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>mitra2</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Quasi provident consectetur quae itaque doloribus.</t>
-        </is>
-      </c>
-      <c r="O1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>.el-table__row:nth-child(8) .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>.el-table__row:nth-child(2) .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>.el-table__row:nth-child(6) .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>#jenis0 &gt; span</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Porro.</t>
-        </is>
-      </c>
-      <c r="U1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>satuan0</t>
-        </is>
-      </c>
-      <c r="W1" t="n">
-        <v>623784</v>
-      </c>
-      <c r="X1" t="n">
-        <v>1</v>
+          <t>pemasaran0opt1</t>
+        </is>
+      </c>
+      <c r="E1" t="n">
+        <v>613264</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>nihil</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Quae ab perspiciatis explicabo modi ratione. Repellat harum pariatur molestiae nihil consequuntur sint. Odit vel tenetur reprehenderit dolorum cum. Ea nisi quaerat corporis ad a.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pemasaran0opt1</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>507995</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>nihil</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ex vero accusantium ab illum iusto quae. Debitis incidunt quibusdam nesciunt sint excepturi.
+Voluptatum eveniet molestias impedit reiciendis. Cumque occaecati neque eum dolorum assumenda animi.
+Ea unde officiis sequi nam officiis. Ducimus quasi ipsum a.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>pemasaran0opt1</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>998132</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>nihil</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Iste optio perferendis laudantium optio quidem rerum. Voluptatibus exercitationem aliquid deleniti. Minima adipisci rerum inventore.
+Nam repudiandae minima.
+Excepturi quo laudantium quibusdam placeat nulla. A magni repellat accusantium.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>pemasaran0opt1</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>757090</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>nihil</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ratione culpa architecto provident id error sed temporibus. Modi delectus cum harum quibusdam corrupti iusto. Recusandae ea consectetur laboriosam.
+Odio quibusdam nostrum numquam animi suscipit rerum. Rerum sint inventore ex.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pemasaran0opt1</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>291898</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>17/05/2023</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,8 +434,8 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ratione ratione quia laboriosam cumque voluptate. Illum porro rem maxime. Occaecati magnam accusamus.
-Ut maiores magnam suscipit quidem nisi. Vitae non cumque deserunt. Hic optio cupiditate debitis.</t>
+          <t>Quod similique unde commodi non incidunt consequatur. At ipsa quia assumenda perferendis.
+Quidem placeat explicabo aliquam nesciunt impedit amet. Itaque dignissimos incidunt iure officia dolore.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -444,13 +444,13 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>613264</v>
+        <v>436573</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>17/05/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Quae ab perspiciatis explicabo modi ratione. Repellat harum pariatur molestiae nihil consequuntur sint. Odit vel tenetur reprehenderit dolorum cum. Ea nisi quaerat corporis ad a.</t>
+          <t>Architecto sit quam consequuntur voluptatum. Laboriosam odio error pariatur eius quisquam amet.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -469,13 +469,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>507995</v>
+        <v>270178</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>17/05/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -485,9 +485,8 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ex vero accusantium ab illum iusto quae. Debitis incidunt quibusdam nesciunt sint excepturi.
-Voluptatum eveniet molestias impedit reiciendis. Cumque occaecati neque eum dolorum assumenda animi.
-Ea unde officiis sequi nam officiis. Ducimus quasi ipsum a.</t>
+          <t>Officia eligendi saepe adipisci eius ipsum.
+Totam inventore voluptate tenetur. Sit vero accusamus nulla.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -496,13 +495,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>998132</v>
+        <v>306051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>17/05/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -512,9 +511,8 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Iste optio perferendis laudantium optio quidem rerum. Voluptatibus exercitationem aliquid deleniti. Minima adipisci rerum inventore.
-Nam repudiandae minima.
-Excepturi quo laudantium quibusdam placeat nulla. A magni repellat accusantium.</t>
+          <t>Similique quod rerum dolore quasi veniam. Magni occaecati enim totam.
+Voluptates corporis voluptatum rem iste ad tenetur debitis. Quos ipsum odio veniam error atque expedita autem.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -523,13 +521,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>757090</v>
+        <v>101691</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>17/05/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -539,8 +537,8 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ratione culpa architecto provident id error sed temporibus. Modi delectus cum harum quibusdam corrupti iusto. Recusandae ea consectetur laboriosam.
-Odio quibusdam nostrum numquam animi suscipit rerum. Rerum sint inventore ex.</t>
+          <t>Adipisci est corrupti quas consequatur eos ullam. Odio sit temporibus placeat blanditiis harum. Odio a quae vel non eligendi.
+Laudantium nam nemo. Voluptatum maxime corporis aspernatur. Non odit nobis placeat consequuntur nostrum quibusdam.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -549,7 +547,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>291898</v>
+        <v>171698</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Pemasaran" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GiatjaTambah" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,130 +424,112 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Manufaktur</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>jenisKegiatan2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sunt.</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>skala1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>pendapatan</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Quod similique unde commodi non incidunt consequatur. At ipsa quia assumenda perferendis.
-Quidem placeat explicabo aliquam nesciunt impedit amet. Itaque dignissimos incidunt iure officia dolore.</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>pemasaran0opt1</t>
-        </is>
-      </c>
-      <c r="E1" t="n">
-        <v>436573</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>17/05/2023</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>nihil</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Architecto sit quam consequuntur voluptatum. Laboriosam odio error pariatur eius quisquam amet.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>pemasaran0opt1</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>270178</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>17/05/2023</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>nihil</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Officia eligendi saepe adipisci eius ipsum.
-Totam inventore voluptate tenetur. Sit vero accusamus nulla.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>pemasaran0opt1</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>306051</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>17/05/2023</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>nihil</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Similique quod rerum dolore quasi veniam. Magni occaecati enim totam.
-Voluptates corporis voluptatum rem iste ad tenetur debitis. Quos ipsum odio veniam error atque expedita autem.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>pemasaran0opt1</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>101691</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>17/05/2023</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>nihil</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Adipisci est corrupti quas consequatur eos ullam. Odio sit temporibus placeat blanditiis harum. Odio a quae vel non eligendi.
-Laudantium nam nemo. Voluptatum maxime corporis aspernatur. Non odit nobis placeat consequuntur nostrum quibusdam.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>pemasaran0opt1</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>171698</v>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>19/05/2023</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>area1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Gg. Raya Setiabudhi No. 394
+Tidore Kepulauan, SB 91949</t>
+        </is>
+      </c>
+      <c r="I1" t="n">
+        <v>243</v>
+      </c>
+      <c r="J1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>sarana1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>prasaranaundefined-1</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>mitra0</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Assumenda nihil alias amet libero est. Rerum consequatur asperiores placeat fugit.</t>
+        </is>
+      </c>
+      <c r="O1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(1) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(8) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(9) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>#jenis1 &gt; span</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Atque.</t>
+        </is>
+      </c>
+      <c r="U1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>satuan4</t>
+        </is>
+      </c>
+      <c r="W1" t="n">
+        <v>331183</v>
+      </c>
+      <c r="X1" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -429,96 +429,96 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>jenisKegiatan3</t>
+          <t>jenisKegiatan2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ad.</t>
+          <t>Fugit.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>skala1</t>
+          <t>skala0</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>13/05/2023</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>20/05/2023</t>
+          <t>21/05/2023</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>area0</t>
+          <t>area2</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Gang Kendalsari No. 557
-Madiun, Kalimantan Tengah 09376</t>
+          <t>Gg. Jakarta No. 1
+Sungai Penuh, SU 60714</t>
         </is>
       </c>
       <c r="I1" t="n">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="J1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>sarana1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>prasaranaundefined-1</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>mitra0</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Dolorum eaque sit nisi. Quo sequi libero maiores.</t>
+        </is>
+      </c>
+      <c r="O1" t="n">
         <v>2</v>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>sarana1</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>prasaranaundefined-0</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>mitra0</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Nobis at cupiditate. Minus exercitationem laboriosam cum pariatur.</t>
-        </is>
-      </c>
-      <c r="O1" t="n">
-        <v>1</v>
-      </c>
       <c r="P1" t="inlineStr">
         <is>
+          <t>.el-table__row:nth-child(8) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>.el-table__row:nth-child(1) .el-checkbox__inner</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>.el-table__row:nth-child(6) .el-checkbox__inner</t>
-        </is>
-      </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>.el-table__row:nth-child(2) .el-checkbox__inner</t>
+          <t>.el-table__row:nth-child(8) .el-checkbox__inner</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>#jenis0 &gt; span</t>
+          <t>#jenis1 &gt; span</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Ipsa.</t>
+          <t>Eum.</t>
         </is>
       </c>
       <c r="U1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V1" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="W1" t="n">
-        <v>537125</v>
+        <v>605148</v>
       </c>
       <c r="X1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -429,49 +429,49 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>jenisKegiatan2</t>
+          <t>jenisKegiatan1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Fugit.</t>
+          <t>Ipsa.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>skala0</t>
+          <t>skala1</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>12/05/2023</t>
+          <t>16/05/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>21/05/2023</t>
+          <t>24/05/2023</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>area2</t>
+          <t>area1</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Gg. Jakarta No. 1
-Sungai Penuh, SU 60714</t>
+          <t>Jalan Rungkut Industri No. 90
+Kota Administrasi Jakarta Utara, Kalimantan Barat 01801</t>
         </is>
       </c>
       <c r="I1" t="n">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="J1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>sarana1</t>
+          <t>sarana0</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -486,50 +486,50 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Dolorum eaque sit nisi. Quo sequi libero maiores.</t>
+          <t>Voluptas occaecati eaque eum quae quo iusto. Eligendi quo sunt.</t>
         </is>
       </c>
       <c r="O1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(7) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(1) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(6) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>jenis1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Fuga.</t>
+        </is>
+      </c>
+      <c r="U1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>satuan5</t>
+        </is>
+      </c>
+      <c r="W1" t="n">
+        <v>341121</v>
+      </c>
+      <c r="X1" t="n">
         <v>2</v>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>.el-table__row:nth-child(8) .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>.el-table__row:nth-child(1) .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>.el-table__row:nth-child(8) .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>#jenis1 &gt; span</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Eum.</t>
-        </is>
-      </c>
-      <c r="U1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>satuan5</t>
-        </is>
-      </c>
-      <c r="W1" t="n">
-        <v>605148</v>
-      </c>
-      <c r="X1" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -424,59 +424,59 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Manufaktur</t>
+          <t>Jasa</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>jenisKegiatan1</t>
+          <t>jenisKegiatan2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ipsa.</t>
+          <t>Quae.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>skala1</t>
+          <t>skala0</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>16/05/2023</t>
+          <t>03/06/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>24/05/2023</t>
+          <t>06/06/2023</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>area1</t>
+          <t>area0</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Jalan Rungkut Industri No. 90
-Kota Administrasi Jakarta Utara, Kalimantan Barat 01801</t>
+          <t>Gg. Pacuan Kuda No. 897
+Samarinda, Sumatera Utara 27855</t>
         </is>
       </c>
       <c r="I1" t="n">
-        <v>345</v>
+        <v>454</v>
       </c>
       <c r="J1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>sarana0</t>
+          <t>sarana2</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>prasaranaundefined-1</t>
+          <t>prasaranaundefined-2</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Voluptas occaecati eaque eum quae quo iusto. Eligendi quo sunt.</t>
+          <t>Pariatur tempore dolorum tempora assumenda voluptates cumque.</t>
         </is>
       </c>
       <c r="O1" t="n">
@@ -499,12 +499,12 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>.el-table__row:nth-child(1) .el-checkbox__inner</t>
+          <t>.el-table__row:nth-child(9) .el-checkbox__inner</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>.el-table__row:nth-child(6) .el-checkbox__inner</t>
+          <t>.el-table__row:nth-child(10) .el-checkbox__inner</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
@@ -514,22 +514,22 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Fuga.</t>
+          <t>Nulla.</t>
         </is>
       </c>
       <c r="U1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>satuan5</t>
+          <t>satuan3</t>
         </is>
       </c>
       <c r="W1" t="n">
-        <v>341121</v>
+        <v>62533</v>
       </c>
       <c r="X1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -429,107 +429,107 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>jenisKegiatan2</t>
+          <t>jenisKegiatan1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Quae.</t>
+          <t>Error.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>skala0</t>
+          <t>skala1</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>03/06/2023</t>
+          <t>04/09/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>06/06/2023</t>
+          <t>11/09/2023</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>area0</t>
+          <t>area1</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Gg. Pacuan Kuda No. 897
-Samarinda, Sumatera Utara 27855</t>
+          <t>Jalan Erlangga No. 57
+Bitung, PA 69604</t>
         </is>
       </c>
       <c r="I1" t="n">
-        <v>454</v>
+        <v>539</v>
       </c>
       <c r="J1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>sarana2</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>prasaranaundefined-0</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>mitra0</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Odio eius architecto molestias omnis modi. Deleniti sint sint iusto.</t>
+        </is>
+      </c>
+      <c r="O1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(3) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(4) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(7) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>jenis0</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Quas.</t>
+        </is>
+      </c>
+      <c r="U1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>satuan3</t>
+        </is>
+      </c>
+      <c r="W1" t="n">
+        <v>631221</v>
+      </c>
+      <c r="X1" t="n">
         <v>6</v>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>sarana2</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>prasaranaundefined-2</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>mitra0</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Pariatur tempore dolorum tempora assumenda voluptates cumque.</t>
-        </is>
-      </c>
-      <c r="O1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>.el-table__row:nth-child(7) .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>.el-table__row:nth-child(9) .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>.el-table__row:nth-child(10) .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>jenis1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Nulla.</t>
-        </is>
-      </c>
-      <c r="U1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>satuan3</t>
-        </is>
-      </c>
-      <c r="W1" t="n">
-        <v>62533</v>
-      </c>
-      <c r="X1" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Jasa</t>
+          <t>Manufaktur</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Error.</t>
+          <t>Maxime.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -444,92 +444,92 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>04/09/2023</t>
+          <t>19/09/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>11/09/2023</t>
+          <t>19/09/2023</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>area1</t>
+          <t>area0</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Jalan Erlangga No. 57
-Bitung, PA 69604</t>
+          <t>Gang Pasirkoja No. 1
+Tual, JK 80486</t>
         </is>
       </c>
       <c r="I1" t="n">
-        <v>539</v>
+        <v>801</v>
       </c>
       <c r="J1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>sarana0</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>prasaranaundefined-0</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>mitra0</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Facere maiores itaque enim dolorem. Corporis reprehenderit magnam delectus voluptas commodi a.</t>
+        </is>
+      </c>
+      <c r="O1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(3) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(4) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>.el-table__row:nth-child(7) .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>jenis0</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Sunt.</t>
+        </is>
+      </c>
+      <c r="U1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>satuan5</t>
+        </is>
+      </c>
+      <c r="W1" t="n">
+        <v>176843</v>
+      </c>
+      <c r="X1" t="n">
         <v>5</v>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>sarana2</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>prasaranaundefined-0</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>mitra0</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Odio eius architecto molestias omnis modi. Deleniti sint sint iusto.</t>
-        </is>
-      </c>
-      <c r="O1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>.el-table__row:nth-child(3) .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>.el-table__row:nth-child(4) .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>.el-table__row:nth-child(7) .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>jenis0</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Quas.</t>
-        </is>
-      </c>
-      <c r="U1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>satuan3</t>
-        </is>
-      </c>
-      <c r="W1" t="n">
-        <v>631221</v>
-      </c>
-      <c r="X1" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -429,12 +429,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>jenisKegiatan1</t>
+          <t>jenisKegiatan0</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Maxime.</t>
+          <t>Illo.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -444,12 +444,12 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>19/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>19/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -459,15 +459,15 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Gang Pasirkoja No. 1
-Tual, JK 80486</t>
+          <t>Gg. Sadang Serang No. 40
+Mataram, SU 75056</t>
         </is>
       </c>
       <c r="I1" t="n">
-        <v>801</v>
+        <v>305</v>
       </c>
       <c r="J1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K1" t="inlineStr">
         <is>
@@ -486,11 +486,11 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Facere maiores itaque enim dolorem. Corporis reprehenderit magnam delectus voluptas commodi a.</t>
+          <t>Ea impedit est earum expedita modi odio neque. Hic totam veniam aliquid.</t>
         </is>
       </c>
       <c r="O1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P1" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>.el-table__row:nth-child(4) .el-checkbox__inner</t>
+          <t>.el-table__row:nth-child(5) .el-checkbox__inner</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
@@ -514,22 +514,22 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Sunt.</t>
+          <t>Quidem.</t>
         </is>
       </c>
       <c r="U1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>satuan5</t>
+          <t>satuan1</t>
         </is>
       </c>
       <c r="W1" t="n">
-        <v>176843</v>
+        <v>551972</v>
       </c>
       <c r="X1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Manufaktur</t>
+          <t>Jasa</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,40 +434,40 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Illo.</t>
+          <t>Quo.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>skala1</t>
+          <t>skala2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>17/10/2023</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>area0</t>
+          <t>area1</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Gg. Sadang Serang No. 40
-Mataram, SU 75056</t>
+          <t>Gg. Rajawali Timur No. 590
+Bandar Lampung, Kalimantan Barat 03385</t>
         </is>
       </c>
       <c r="I1" t="n">
-        <v>305</v>
+        <v>725</v>
       </c>
       <c r="J1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K1" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Ea impedit est earum expedita modi odio neque. Hic totam veniam aliquid.</t>
+          <t>Quae tempore dolores asperiores sequi nostrum. Non provident amet unde rem iusto.</t>
         </is>
       </c>
       <c r="O1" t="n">
@@ -499,12 +499,12 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>.el-table__row:nth-child(5) .el-checkbox__inner</t>
+          <t>.el-table__row:nth-child(6) .el-checkbox__inner</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>.el-table__row:nth-child(7) .el-checkbox__inner</t>
+          <t>.el-table__row:nth-child(9) .el-checkbox__inner</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Quidem.</t>
+          <t>Quam.</t>
         </is>
       </c>
       <c r="U1" t="n">
@@ -522,14 +522,14 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>satuan1</t>
+          <t>satuan0</t>
         </is>
       </c>
       <c r="W1" t="n">
-        <v>551972</v>
+        <v>926986</v>
       </c>
       <c r="X1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/FakerGiatja.xlsx
+++ b/SDP/Filexel/FakerGiatja.xlsx
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Quo.</t>
+          <t>Hic.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -444,12 +444,12 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -459,15 +459,15 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Gg. Rajawali Timur No. 590
-Bandar Lampung, Kalimantan Barat 03385</t>
+          <t>Jalan Gardujati No. 5
+Langsa, KU 36153</t>
         </is>
       </c>
       <c r="I1" t="n">
-        <v>725</v>
+        <v>846</v>
       </c>
       <c r="J1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K1" t="inlineStr">
         <is>
@@ -486,11 +486,11 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Quae tempore dolores asperiores sequi nostrum. Non provident amet unde rem iusto.</t>
+          <t>Impedit maxime minima. Deleniti sequi iure minus blanditiis recusandae mollitia.</t>
         </is>
       </c>
       <c r="O1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P1" t="inlineStr">
         <is>
@@ -499,12 +499,12 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>.el-table__row:nth-child(6) .el-checkbox__inner</t>
+          <t>.el-table__row:nth-child(5) .el-checkbox__inner</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>.el-table__row:nth-child(9) .el-checkbox__inner</t>
+          <t>.el-table__row:nth-child(8) .el-checkbox__inner</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
@@ -514,22 +514,22 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Quam.</t>
+          <t>Nulla.</t>
         </is>
       </c>
       <c r="U1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>satuan0</t>
+          <t>satuan3</t>
         </is>
       </c>
       <c r="W1" t="n">
-        <v>926986</v>
+        <v>508584</v>
       </c>
       <c r="X1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
